--- a/biology/Histoire de la zoologie et de la botanique/Louis_Blaringhem/Louis_Blaringhem.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Blaringhem/Louis_Blaringhem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Florimond Joseph Blaringhem, né le 1er février 1878 à Locon (Pas-de-Calais) et mort le 1er janvier 1958 à Paris[1], est un botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Florimond Joseph Blaringhem, né le 1er février 1878 à Locon (Pas-de-Calais) et mort le 1er janvier 1958 à Paris, est un botaniste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille de Blaringhem est modeste : son père Louis est instituteur, tout comme son grand-père ; sa mère, Marie Devaux, est issue d’une famille d’agriculteurs de Douvrin. Il est le cadet et l'aîné des garçons au sein d’une fratrie de six enfants ; deux de ses frères deviendront des ingénieurs, un autre vétérinaire.
-Il étudie à Béthune puis au lycée Faidherbe[2] de Lille avant de se présenter aux concours de l’École polytechnique et de l’École normale supérieure (1898). Il est reçu aux deux et opte pour le second établissement (1899-1903). Il obtient sa licence (1902), l'agrégation de sciences naturelles (1903) et son doctorat en sciences naturelles (1907). Il est agrégé-préparateur à l’École normale supérieure,  d'abord en géologie (1903), puis de botanique (1904-1907).
+Il étudie à Béthune puis au lycée Faidherbe de Lille avant de se présenter aux concours de l’École polytechnique et de l’École normale supérieure (1898). Il est reçu aux deux et opte pour le second établissement (1899-1903). Il obtient sa licence (1902), l'agrégation de sciences naturelles (1903) et son doctorat en sciences naturelles (1907). Il est agrégé-préparateur à l’École normale supérieure,  d'abord en géologie (1903), puis de botanique (1904-1907).
 En 1909, Blaringhem devient chef de service à l'Institut Pasteur. Il enseigne à la faculté des sciences de Paris et au Conservatoire national des arts et métiers. Durant la Première Guerre mondiale, il est versé dans l’infanterie en 1914 et passe plus d’un an au front. En 1915, il est affecté dans les services de fabrication d’avions. Il reçoit diverses décorations dont la croix de guerre. Après guerre, il reprend ses fonctions à l’Institut Pasteur et à la faculté des sciences.
 En 1918, à la suite de la mort de son ami botaniste Gaston Allard, il prend sa succession à la tête de l'arboretum d'Angers, poste qu'il conservera jusqu'à sa mort.
 En 1919, il passe six mois à l’université Harvard. Il fait différentes missions en Europe (Suède, Pays-Bas) comme aux États-Unis d'Amérique ou au Japon.
@@ -552,7 +566,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La notion d'espèce, application aux progrès de l'agriculture et de l'industrie des notions nouvelles sur l'espèce, Paris, Revue des idées, 1905.
 L'Origine des espèces, sélection et mutation, Paris, Revue des idées, 1906.
@@ -560,7 +576,7 @@
 La variation des formes végétales, Lille, Le Bigot, 1908.
 Mutation et traumatismes : étude sur l'évolution des formes végétales, Paris, Félix Alcan, 1908, 249 pages.
 Études sur l'amélioration des crûs d'orges de brasserie, Paris, Société d'encouragement de la culture des orges de brasserie en France, 1910.
-De la méthode dans les sciences[3], avec Benjamin Baillaud, Léon Bertrand et Émile Borel, Félix Alcan, Nouvelle collection scientifique, 1911, 1924.
+De la méthode dans les sciences, avec Benjamin Baillaud, Léon Bertrand et Émile Borel, Félix Alcan, Nouvelle collection scientifique, 1911, 1924.
 Parthénogenèse des végétaux supérieurs, Paris, Laboratoire d'évolution des êtres organisés, 1909.
 Sur l'hérédité en biologie, Paris, 1911.
 Les transformations brusques des êtres vivants, Paris, Flammarion, Bibliothèque de philosophie scientifique, 1911, 353 pages.
